--- a/data/LesJO.xlsx
+++ b/data/LesJO.xlsx
@@ -58,7 +58,7 @@
     <t xml:space="preserve">masculin</t>
   </si>
   <si>
-    <t xml:space="preserve">2999-01-08 00:00:00</t>
+    <t xml:space="preserve">1999-01-08 00:00:00</t>
   </si>
   <si>
     <t xml:space="preserve">BERNE</t>
